--- a/data/2023/fid/FID-SUEDASIEN-DE-16.xlsx
+++ b/data/2023/fid/FID-SUEDASIEN-DE-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="261">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,42 +91,453 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>963941-X</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>mg;b</t>
+  </si>
+  <si>
+    <t>Integraler Yoga</t>
+  </si>
+  <si>
+    <t>Dt. Zweig d. Internat. Sri Aurobinds Ges. e.V.</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>230;100</t>
+  </si>
+  <si>
+    <t>0;FID-SUEDASIEN-DE-16</t>
+  </si>
+  <si>
+    <t>1.1964 - 6.1969[?]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>401572-1</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Jain journal</t>
+  </si>
+  <si>
+    <t>Jain Bhawan</t>
+  </si>
+  <si>
+    <t>Calcutta</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>0021-4043</t>
+  </si>
+  <si>
+    <t>100;290;890</t>
+  </si>
+  <si>
+    <t>6,24;0;FID-SUEDASIEN-DE-16</t>
+  </si>
+  <si>
+    <t>1.1966/67-Vol. 50, no. 1-4 (2015/2016)</t>
+  </si>
+  <si>
+    <t>412769-9</t>
+  </si>
+  <si>
+    <t>The Madras journal of co-operation</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Madras</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>FID-SUEDASIEN-DE-16</t>
+  </si>
+  <si>
+    <t>862781-2</t>
+  </si>
+  <si>
+    <t>412768-7</t>
+  </si>
+  <si>
+    <t>20.1928,2 - 64.1972/73,4</t>
+  </si>
+  <si>
+    <t>1110954-3</t>
+  </si>
+  <si>
+    <t>Annual general administration report of Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Port Blair</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>1960/61 nachgewiesen</t>
+  </si>
+  <si>
+    <t>801863-7</t>
+  </si>
+  <si>
+    <t>Annual report of the Central Bureau of Investigation ...</t>
+  </si>
+  <si>
+    <t>Gov.</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>1976(1977) nachgewiesen</t>
+  </si>
+  <si>
+    <t>804332-2</t>
+  </si>
+  <si>
+    <t>Samakālīna Bhāratīya Sahitya</t>
+  </si>
+  <si>
+    <t>Akād.</t>
+  </si>
+  <si>
+    <t>Naī Dillī</t>
+  </si>
+  <si>
+    <t>0970-8367</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>1.1980/81 - ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>430515-2</t>
+  </si>
+  <si>
+    <t>Social science bibliography, India, Pakistan</t>
+  </si>
+  <si>
+    <t>Calcutta [u.a.]</t>
+  </si>
+  <si>
+    <t>300;390</t>
+  </si>
+  <si>
+    <t>430516-4</t>
+  </si>
+  <si>
+    <t>Nr. 1.1952 - 6.1957(1958)</t>
+  </si>
+  <si>
+    <t>South Asia social science bibliography</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>430517-6</t>
+  </si>
+  <si>
+    <t>Nr. 7.1958(1959)</t>
+  </si>
+  <si>
+    <t>431103-6</t>
+  </si>
+  <si>
+    <t>The quinquennial digest</t>
+  </si>
+  <si>
+    <t>MLJ Office</t>
+  </si>
+  <si>
+    <t>1951/55(1957/58) -</t>
+  </si>
+  <si>
+    <t>The Tamil Nadu journal of co-operation</t>
+  </si>
+  <si>
+    <t>0377-8002</t>
+  </si>
+  <si>
+    <t>330;360;050</t>
+  </si>
+  <si>
+    <t>64.1972/73,5 -</t>
+  </si>
+  <si>
+    <t>864957-1</t>
+  </si>
+  <si>
+    <t>Annual report</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>360;620;660</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 10.1963/64 -</t>
+  </si>
+  <si>
+    <t>869698-6</t>
+  </si>
+  <si>
+    <t>A collection of the federal ordinances, President's orders and regulations</t>
+  </si>
+  <si>
+    <t>Manager of Publ.</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>704899-3</t>
+  </si>
+  <si>
+    <t>1973(1975) -</t>
+  </si>
+  <si>
+    <t>872873-2</t>
+  </si>
+  <si>
+    <t>Annual consolidated report on the working of labour laws in Pakistan</t>
+  </si>
+  <si>
+    <t>340;330;360</t>
+  </si>
+  <si>
+    <t>2018984-9</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1972 -</t>
+  </si>
+  <si>
+    <t>873568-2</t>
+  </si>
+  <si>
+    <t>Statistical abstract of Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>1.1956(1958) -</t>
+  </si>
+  <si>
+    <t>877784-6</t>
+  </si>
+  <si>
+    <t>Report of the Committee</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1953 - 1969; 1970(1971) -</t>
+  </si>
+  <si>
+    <t>882747-3</t>
+  </si>
+  <si>
+    <t>Indian sugar year-book</t>
+  </si>
+  <si>
+    <t>0537-2631</t>
+  </si>
+  <si>
+    <t>630;640</t>
+  </si>
+  <si>
+    <t>1.1964/65(1966) - 41.2013/2014 ; 2014/2015-2015/2016 [?]</t>
+  </si>
+  <si>
+    <t>895044-1</t>
+  </si>
+  <si>
+    <t>The Assam directory &amp; tea areas handbook</t>
+  </si>
+  <si>
+    <t>Western India Machinery</t>
+  </si>
+  <si>
+    <t>310;630;640</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 20.1949 -</t>
+  </si>
+  <si>
+    <t>1193749-X</t>
+  </si>
+  <si>
+    <t>Indian politics, documents, events &amp; figures</t>
+  </si>
+  <si>
+    <t>Avinash Reference Publ.</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>1979(1980) nachgewiesen</t>
+  </si>
+  <si>
+    <t>228601-4</t>
+  </si>
+  <si>
+    <t>Abhilekha</t>
+  </si>
+  <si>
+    <t>Kāṭhamāḍauṃ</t>
+  </si>
+  <si>
+    <t>nep;eng</t>
+  </si>
+  <si>
+    <t>910;940</t>
+  </si>
+  <si>
+    <t>1.2040=[1983/84] -</t>
+  </si>
+  <si>
+    <t>A collection of the central acts and ordinances</t>
+  </si>
+  <si>
+    <t>1947 - 1972(1974)</t>
+  </si>
+  <si>
+    <t>705130-X</t>
+  </si>
+  <si>
+    <t>A Manual of the Madhya Pradesh local acts</t>
+  </si>
+  <si>
+    <t>Allahabad</t>
+  </si>
+  <si>
+    <t>[1st edition], 1799/1962, 1-1799/1962, 7 ; 1963/66(1967) ; 2nd edition, 1799/1970, volume 1-1799/1970, volume 14</t>
+  </si>
+  <si>
+    <t>705709-X</t>
+  </si>
+  <si>
+    <t>The Bihar local acts ... to ... and important rules, regulations &amp; orders with commentary and up-to-date case-law</t>
+  </si>
+  <si>
+    <t>705710-6</t>
+  </si>
+  <si>
+    <t>1.1793/1962(1962) - 8.1793/1963(1966)</t>
+  </si>
+  <si>
+    <t>705888-3</t>
+  </si>
+  <si>
+    <t>The Unrepealed central acts</t>
+  </si>
+  <si>
+    <t>1.1834/71(1938) - 8.1924/30(1939); 2.Ed. 1.1835/71(1951) - 2.1872/81(1951); 3.1882/97(1950) - 4.1898/1907(1951); 5.1908/10(1949) - 9.1931/38(1951); 10.1939/47(1950)</t>
+  </si>
+  <si>
+    <t>303383-1</t>
+  </si>
+  <si>
+    <t>Purṇimā</t>
+  </si>
+  <si>
+    <t>Bholanatha Paudela</t>
+  </si>
+  <si>
+    <t>Kāṭhamāṇḍau</t>
+  </si>
+  <si>
+    <t>910;950;890</t>
+  </si>
+  <si>
+    <t>1.2021=[1963/64] -</t>
+  </si>
+  <si>
+    <t>303670-4</t>
+  </si>
+  <si>
+    <t>Annual report on epigraphy</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>890;730;920</t>
+  </si>
+  <si>
+    <t>1965(1968) - 1967(1975) nachgewiesen</t>
+  </si>
+  <si>
+    <t>305646-6</t>
+  </si>
+  <si>
+    <t>Indian philosophical annual</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>0376-4109</t>
+  </si>
+  <si>
+    <t>100;890</t>
+  </si>
+  <si>
+    <t>5,1;FID-SUEDASIEN-DE-16</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.1966(1968)-24 (2003/2005) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
     <t>2191464-3</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Annual report</t>
-  </si>
-  <si>
     <t>Trust</t>
   </si>
   <si>
     <t>Lalitpur</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>333.7</t>
   </si>
   <si>
-    <t>FID-SUEDASIEN-DE-16</t>
-  </si>
-  <si>
     <t>Nachgewiesen 1994/95(1995) -</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1442831-3</t>
   </si>
   <si>
@@ -145,6 +556,21 @@
     <t>1939 nachgewiesen</t>
   </si>
   <si>
+    <t>2180806-5</t>
+  </si>
+  <si>
+    <t>Sarakārī ḍāyarakṭrī</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>hin;eng</t>
+  </si>
+  <si>
+    <t>1981 nachgewiesen</t>
+  </si>
+  <si>
     <t>2613186-9</t>
   </si>
   <si>
@@ -163,25 +589,37 @@
     <t xml:space="preserve"> 1.1996 - 3.1999,1</t>
   </si>
   <si>
-    <t>804332-2</t>
-  </si>
-  <si>
-    <t>Samakālīna Bhāratīya Sahitya</t>
-  </si>
-  <si>
-    <t>Akād.</t>
-  </si>
-  <si>
-    <t>Naī Dillī</t>
-  </si>
-  <si>
-    <t>0970-8367</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>1.1980/81 - ; auch mit durchgehender Nr.-Zählung</t>
+    <t>2898679-9</t>
+  </si>
+  <si>
+    <t>Gandhāran studies</t>
+  </si>
+  <si>
+    <t>Ancient and Medieval Gandhāra Research Group</t>
+  </si>
+  <si>
+    <t>Peshawar</t>
+  </si>
+  <si>
+    <t>1996-9120</t>
+  </si>
+  <si>
+    <t>930;950</t>
+  </si>
+  <si>
+    <t>Volume 1 (2007)-</t>
+  </si>
+  <si>
+    <t>2698649-8</t>
+  </si>
+  <si>
+    <t>Soc.</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>1980 - 1985/86 nachgewiesen</t>
   </si>
   <si>
     <t>3133723-5</t>
@@ -217,97 +655,148 @@
     <t>LF</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>DE-12;DE-M352;DE-19;DE-20;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-861;DE-91;DE-Mh39;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-521;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>882747-3</t>
-  </si>
-  <si>
-    <t>Indian sugar year-book</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>0537-2631</t>
-  </si>
-  <si>
-    <t>630;640</t>
-  </si>
-  <si>
-    <t>1.1964/65(1966) - 41.2013/2014 ; 2014/2015-2015/2016 [?]</t>
-  </si>
-  <si>
-    <t>895044-1</t>
-  </si>
-  <si>
-    <t>The Assam directory &amp; tea areas handbook</t>
-  </si>
-  <si>
-    <t>Western India Machinery</t>
-  </si>
-  <si>
-    <t>Calcutta</t>
-  </si>
-  <si>
-    <t>310;630;640</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 20.1949 -</t>
-  </si>
-  <si>
-    <t>1110954-3</t>
-  </si>
-  <si>
-    <t>Annual general administration report of Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Port Blair</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>1960/61 nachgewiesen</t>
-  </si>
-  <si>
-    <t>1193749-X</t>
-  </si>
-  <si>
-    <t>Indian politics, documents, events &amp; figures</t>
-  </si>
-  <si>
-    <t>Avinash Reference Publ.</t>
-  </si>
-  <si>
-    <t>Kolhapur</t>
-  </si>
-  <si>
-    <t>1979(1980) nachgewiesen</t>
-  </si>
-  <si>
-    <t>2898679-9</t>
-  </si>
-  <si>
-    <t>Gandhāran studies</t>
-  </si>
-  <si>
-    <t>Ancient and Medieval Gandhāra Research Group</t>
-  </si>
-  <si>
-    <t>Peshawar</t>
-  </si>
-  <si>
-    <t>1996-9120</t>
-  </si>
-  <si>
-    <t>930;950</t>
-  </si>
-  <si>
-    <t>Volume 1 (2007)-</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-861;DE-Mh39;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-521;DE-703;DE-739;DE-573;DE-150;DE-824;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3140249-5</t>
+  </si>
+  <si>
+    <t>Report on the administration of civil justice in the state of Bihar during the year ...</t>
+  </si>
+  <si>
+    <t>The Superintendent, Secretariat Press</t>
+  </si>
+  <si>
+    <t>Bihar, Patna</t>
+  </si>
+  <si>
+    <t>350;340</t>
+  </si>
+  <si>
+    <t>1961 [?]-1967 [?]</t>
+  </si>
+  <si>
+    <t>3140371-2</t>
+  </si>
+  <si>
+    <t>Vol. 45, no. 1-4 (July 2010/June 2011)-</t>
+  </si>
+  <si>
+    <t>http://jainbhawan.in/index.html;http://www.bibliothek.uni-regensburg.de/ezeit/?3140371</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-19;DE-20;DE-Frei160;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-946;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-830;DE-551;DE-552;DE-Luen4;DE-546;DE-542;DE-Wim2;DE-634;DE-706;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-Re13</t>
+  </si>
+  <si>
+    <t>3140869-2</t>
+  </si>
+  <si>
+    <t>... annual report ...</t>
+  </si>
+  <si>
+    <t>[Punjab Agricultural University]</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>630;370</t>
+  </si>
+  <si>
+    <t>1st (1962/63)-</t>
+  </si>
+  <si>
+    <t>3140872-2</t>
+  </si>
+  <si>
+    <t>... annual research report of the Department of Economics &amp; Sociology ...</t>
+  </si>
+  <si>
+    <t>Punjab Agricultural University</t>
+  </si>
+  <si>
+    <t>330;300;370</t>
+  </si>
+  <si>
+    <t>9th (1970/71) [?]-</t>
+  </si>
+  <si>
+    <t>3141458-8</t>
+  </si>
+  <si>
+    <t>Export facilities, policies and procedures ...</t>
+  </si>
+  <si>
+    <t>Export Promotion Bureau, Government of Pakistan</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>1983 [?]-</t>
+  </si>
+  <si>
+    <t>3141466-7</t>
+  </si>
+  <si>
+    <t>Basic data on co-operatives in Tamil Nadu</t>
+  </si>
+  <si>
+    <t>T.N.C.U.;Tamil Nadu Coop Union</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>31.12.1981 [?]-31.12.1985 [?]</t>
+  </si>
+  <si>
+    <t>3144264-X</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Outlook India</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>Stree</t>
+  </si>
+  <si>
+    <t>2001 [?]</t>
+  </si>
+  <si>
+    <t>2727557-7</t>
+  </si>
+  <si>
+    <t>Journal of the Ganganatha Jha Campus</t>
+  </si>
+  <si>
+    <t>0377-0575</t>
+  </si>
+  <si>
+    <t>000;890</t>
+  </si>
+  <si>
+    <t>300533-1</t>
+  </si>
+  <si>
+    <t>65.2009(2011) -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-4</t>
   </si>
 </sst>
 </file>
@@ -639,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,34 +1296,34 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -852,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -878,25 +1367,25 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -905,10 +1394,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -923,13 +1412,13 @@
         <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -955,38 +1444,38 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
       <c r="L5" t="s">
         <v>32</v>
       </c>
@@ -1006,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -1032,37 +1521,37 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -1083,13 +1572,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
         <v>32</v>
@@ -1101,66 +1590,66 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
         <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
-        <v>74</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -1186,58 +1675,58 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
         <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
-        <v>80</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -1263,58 +1752,58 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" t="s">
         <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>85</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -1340,58 +1829,58 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>90</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -1417,37 +1906,37 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -1465,10 +1954,10 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -1490,6 +1979,2393 @@
       </c>
       <c r="Y11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" t="s">
+        <v>32</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>131</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>147</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>150</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" t="s">
+        <v>32</v>
+      </c>
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>156</v>
+      </c>
+      <c r="S25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>161</v>
+      </c>
+      <c r="S26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>168</v>
+      </c>
+      <c r="S27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="s">
+        <v>173</v>
+      </c>
+      <c r="S28" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" t="s">
+        <v>32</v>
+      </c>
+      <c r="W28" t="s">
+        <v>32</v>
+      </c>
+      <c r="X28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" t="s">
+        <v>179</v>
+      </c>
+      <c r="S29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="s">
+        <v>184</v>
+      </c>
+      <c r="S30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" t="s">
+        <v>32</v>
+      </c>
+      <c r="X30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" t="s">
+        <v>190</v>
+      </c>
+      <c r="S31" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" t="s">
+        <v>32</v>
+      </c>
+      <c r="X32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="s">
+        <v>201</v>
+      </c>
+      <c r="S33" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
+        <v>210</v>
+      </c>
+      <c r="S34" t="s">
+        <v>211</v>
+      </c>
+      <c r="T34" t="s">
+        <v>212</v>
+      </c>
+      <c r="U34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" t="s">
+        <v>32</v>
+      </c>
+      <c r="W34" t="s">
+        <v>32</v>
+      </c>
+      <c r="X34" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" t="s">
+        <v>220</v>
+      </c>
+      <c r="S35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" t="s">
+        <v>32</v>
+      </c>
+      <c r="X35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" t="s">
+        <v>222</v>
+      </c>
+      <c r="S36" t="s">
+        <v>223</v>
+      </c>
+      <c r="T36" t="s">
+        <v>212</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" t="s">
+        <v>32</v>
+      </c>
+      <c r="X36" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="s">
+        <v>231</v>
+      </c>
+      <c r="S37" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" t="s">
+        <v>32</v>
+      </c>
+      <c r="X37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" t="s">
+        <v>236</v>
+      </c>
+      <c r="S38" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
+        <v>32</v>
+      </c>
+      <c r="W38" t="s">
+        <v>32</v>
+      </c>
+      <c r="X38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" t="s">
+        <v>241</v>
+      </c>
+      <c r="S39" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" t="s">
+        <v>32</v>
+      </c>
+      <c r="X39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" t="s">
+        <v>246</v>
+      </c>
+      <c r="S40" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>32</v>
+      </c>
+      <c r="W40" t="s">
+        <v>32</v>
+      </c>
+      <c r="X40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" t="s">
+        <v>252</v>
+      </c>
+      <c r="S41" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" t="s">
+        <v>32</v>
+      </c>
+      <c r="W41" t="s">
+        <v>32</v>
+      </c>
+      <c r="X41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>255</v>
+      </c>
+      <c r="J42" t="s">
+        <v>256</v>
+      </c>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>257</v>
+      </c>
+      <c r="R42" t="s">
+        <v>258</v>
+      </c>
+      <c r="S42" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
+        <v>32</v>
+      </c>
+      <c r="W42" t="s">
+        <v>32</v>
+      </c>
+      <c r="X42" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
